--- a/artigos_ACM/SelecaoFase1_Saulo.xlsx
+++ b/artigos_ACM/SelecaoFase1_Saulo.xlsx
@@ -659,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28:G28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1738,8 +1738,11 @@
       <c r="E42" s="0" t="n">
         <v>2017</v>
       </c>
+      <c r="F42" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="G42" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>14</v>
@@ -1915,7 +1918,7 @@
   <dimension ref="C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F28:G28 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/artigos_ACM/SelecaoFase1_Saulo.xlsx
+++ b/artigos_ACM/SelecaoFase1_Saulo.xlsx
@@ -659,14 +659,14 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="81.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.15"/>
@@ -1168,7 +1168,7 @@
         <v>2016</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>23</v>
